--- a/Journaux/Journal de travail.xlsx
+++ b/Journaux/Journal de travail.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -131,16 +131,19 @@
     <t>Bloquée à cause de la communication entre l'ordinateur et la tablette. La version Android de la tablette étant assez veille, il y a eu quelques problèmes de compatibilité</t>
   </si>
   <si>
-    <t>Documentation / Création d'une première application Android pour prendre en main l'environnement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation suite + finition de la première application </t>
-  </si>
-  <si>
-    <t>Créationd de la première page "accueil"</t>
-  </si>
-  <si>
-    <t>Quelques difficulté avec la toolbar, révision de la méthode</t>
+    <t>Création de la première page "accueil"</t>
+  </si>
+  <si>
+    <t>Se documenter sur les possibilité pour créer la première interface/ Création d'une première application Android pour prendre en main l'environnement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se documenter suite + finition de la première application </t>
+  </si>
+  <si>
+    <t>Quelques difficulté avec la toolbar, révision de la méthode -&gt; Probablement partir sur une autre mise en page sous AS</t>
+  </si>
+  <si>
+    <t>Ecriture de la documentation : ajout des maquettes qui semblaient OK. Révisions des scénarios</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,12 +920,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43146</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="10">
         <v>0.15625</v>
@@ -934,19 +937,19 @@
         <v>43146</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="10">
         <v>9.375E-2</v>
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43147</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="10">
         <v>9.375E-2</v>
@@ -955,10 +958,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>43158</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="10">
+        <v>9.375E-2</v>
+      </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,7 +1019,7 @@
       </c>
       <c r="C35" s="10">
         <f>SUM(C2:C34)</f>
-        <v>1.1597222222222223</v>
+        <v>1.2534722222222223</v>
       </c>
       <c r="D35" s="9"/>
     </row>
